--- a/Limpieza.xlsx
+++ b/Limpieza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A59946C-73C6-4AC0-807E-657D834AFFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599CDA6D-28ED-4582-8BCD-B66CE7827B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E89D7BCC-8A5B-458D-9CF8-1F366A37C367}"/>
   </bookViews>
@@ -56,7 +56,7 @@
     <t>P01A01 = 2 y PPB02 &gt; 1</t>
   </si>
   <si>
-    <t>DEPTO MUPIO P01A01 PPA03</t>
+    <t>P01A01 PPA03</t>
   </si>
 </sst>
 </file>

--- a/Limpieza.xlsx
+++ b/Limpieza.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchinchilla\Documents\GitHub\INE_ValidacionENCOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{599CDA6D-28ED-4582-8BCD-B66CE7827B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252C4371-344C-48A8-AF69-A8EA7B130F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E89D7BCC-8A5B-458D-9CF8-1F366A37C367}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>NOMBRE ARCHIVO</t>
   </si>
@@ -50,32 +50,86 @@
     <t>VARIABLES A EXPORTAR</t>
   </si>
   <si>
-    <t>prueba</t>
-  </si>
-  <si>
-    <t>P01A01 = 2 y PPB02 &gt; 1</t>
-  </si>
-  <si>
-    <t>P01A01 PPA03</t>
+    <t>RESPUESTA SIN INFO'</t>
+  </si>
+  <si>
+    <t>RESPUESTA 1 SIN INFO'</t>
+  </si>
+  <si>
+    <t>RESPUESTA 2 CON INFO'</t>
+  </si>
+  <si>
+    <t>INDICA PAGO RESPUESTA 1 SIN INFO'</t>
+  </si>
+  <si>
+    <t>INDICA PAGO RESPUESTA 2 CON INFO'</t>
+  </si>
+  <si>
+    <t>INSTITUCION FUERA DE RANGO'</t>
+  </si>
+  <si>
+    <t>INDICA INSTITUCION 98 Y ESPECIFIQUE VACIO'</t>
+  </si>
+  <si>
+    <t>INDICA INSTITUCION  ~=98 Y ESPECIFIQUE LLENO'</t>
+  </si>
+  <si>
+    <t>SIN 1_ER BENEFICIO '</t>
+  </si>
+  <si>
+    <t>ID_BENEFICIO DESC_BENEFICIO  P03A01A P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06 P03A01B P03A07 P03A08A P03A08B P03A09 P03A10 P03A10A P03A11 P03A01C P03A12 P03A13A P03A13B P03A14 P03A15 P03A15A P03A16</t>
+  </si>
+  <si>
+    <t>ID_BENEFICIO DESC_BENEFICIO  P03A01A P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ID_BENEFICIO DESC_BENEFICIO  P03A01A P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06</t>
+  </si>
+  <si>
+    <t>ID_BENEFICIO DESC_BENEFICIO  P03A01A  P03A02 P03A03A P03A03B P03A04 P03A05 P03A05A P03A06 P03A01B P03A07 P03A08A P03A08B P03A09 P03A10 P03A10A P03A11</t>
+  </si>
+  <si>
+    <t>P03A01A es vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 1 Y (P03A02 es vacio o P03A03A es vacio O P03A04 es vacio O P03A05 es vacio O P03A06 es vacio)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 2 Y (P03A02 no es vacio O P03A03A no es vacio O P03A03B no es vacio O P03A04 no es vacio O P03A05 no es vacio O P03A05A no es vacio O P03A06 no es vacio) .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 1 Y P03A03A = 1 Y P03A03B es vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 1 Y P03A03A = 2 Y P03A03B no es vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A05 no esta en (1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 1 Y P03A05 = 98 Y P03A05A es vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 1 Y P03A05 &lt;&gt; 98 Y P03A05A no es vacio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 2 Y P03A01B = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> P03A01A = 1 Y P03A01B es vacio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +154,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,17 +469,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E9AF77-77DD-4078-BCCC-3A23FFFC7F5C}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.7109375" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -445,22 +497,215 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>